--- a/mosip_master/xlsx/screen_detail.xlsx
+++ b/mosip_master/xlsx/screen_detail.xlsx
@@ -1,55 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1044292\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wuriguineecom-my.sharepoint.com/personal/iteli_bah_wuriguinee_com/Documents/Bureau/master-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{BFF4D129-3CAA-42C3-9940-C5F13D419022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{323F1AD7-039B-42D3-B963-EF2EBEAABFD8}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="25">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>app_id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>descr</t>
+  </si>
   <si>
     <t>lang_code</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>app_id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>descr</t>
-  </si>
-  <si>
     <t>is_active</t>
   </si>
   <si>
-    <t>eng</t>
-  </si>
-  <si>
     <t>approveRegistrationRoot</t>
   </si>
   <si>
+    <t>fra</t>
+  </si>
+  <si>
     <t>TRUE</t>
   </si>
   <si>
@@ -99,39 +95,330 @@
   </si>
   <si>
     <t>uploadPacketRoot</t>
-  </si>
-  <si>
-    <t>correctionRoot</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <name val="Cambria"/>
-      <charset val="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -140,68 +427,206 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Titre" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Titre 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Titre 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Titre 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Titre 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD7D7D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
-    </tableStyle>
-  </tableStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -214,7 +639,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -230,7 +655,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -242,7 +667,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -289,6 +714,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -324,6 +766,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -475,385 +934,359 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" style="1"/>
-    <col min="4" max="4" width="24.85546875" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" style="1"/>
+    <col min="5" max="5" width="23.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1">
-        <v>10003</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="C2">
+        <v>10003</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1">
-        <v>10003</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3">
+        <v>10003</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1">
-        <v>10003</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="C4">
+        <v>10003</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1">
-        <v>10003</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="C5">
+        <v>10003</v>
+      </c>
+      <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="1">
-        <v>10003</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="C6">
+        <v>10003</v>
+      </c>
+      <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="1">
-        <v>10003</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="C7">
+        <v>10003</v>
+      </c>
+      <c r="D7" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="1">
-        <v>10003</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="C8">
+        <v>10003</v>
+      </c>
+      <c r="D8" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="1">
-        <v>10003</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="C9">
+        <v>10003</v>
+      </c>
+      <c r="D9" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="1">
-        <v>10003</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="C10">
+        <v>10003</v>
+      </c>
+      <c r="D10" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="1">
-        <v>10003</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="C11">
+        <v>10003</v>
+      </c>
+      <c r="D11" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="1">
-        <v>10003</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="C12">
+        <v>10003</v>
+      </c>
+      <c r="D12" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="1">
-        <v>10003</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="C13">
+        <v>10003</v>
+      </c>
+      <c r="D13" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="F13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="1">
-        <v>10003</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="C14">
+        <v>10003</v>
+      </c>
+      <c r="D14" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="F14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="1">
-        <v>10003</v>
-      </c>
-      <c r="D15" s="4" t="s">
+      <c r="C15">
+        <v>10003</v>
+      </c>
+      <c r="D15" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="4" t="s">
+      <c r="F15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="1">
-        <v>10003</v>
-      </c>
-      <c r="D16" s="4" t="s">
+      <c r="C16">
+        <v>10003</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="4" t="s">
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="1">
-        <v>10003</v>
-      </c>
-      <c r="D17" s="4" t="s">
+      <c r="C17">
+        <v>10003</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="1">
-        <v>10003</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="1" t="s">
+      <c r="F17" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/mosip_master/xlsx/screen_detail.xlsx
+++ b/mosip_master/xlsx/screen_detail.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wuriguineecom-my.sharepoint.com/personal/iteli_bah_wuriguinee_com/Documents/Bureau/master-data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIP\Mosip Codebase\GUINEA_Pilot\GUINEA_Pilot_Mosip-Data_WuriGuinea-1.2.0.1-B1\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{BFF4D129-3CAA-42C3-9940-C5F13D419022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{323F1AD7-039B-42D3-B963-EF2EBEAABFD8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C7F11A-AA3E-4EFB-A694-E34CF3AB2C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="32">
   <si>
     <t>id</t>
   </si>
@@ -46,9 +46,6 @@
     <t>fra</t>
   </si>
   <si>
-    <t>TRUE</t>
-  </si>
-  <si>
     <t>loginRoot</t>
   </si>
   <si>
@@ -95,6 +92,30 @@
   </si>
   <si>
     <t>uploadPacketRoot</t>
+  </si>
+  <si>
+    <t>cr_by</t>
+  </si>
+  <si>
+    <t>cr_dtimes</t>
+  </si>
+  <si>
+    <t>upd_by</t>
+  </si>
+  <si>
+    <t>upd_dtimes</t>
+  </si>
+  <si>
+    <t>is_deleted</t>
+  </si>
+  <si>
+    <t>del_dtimes</t>
+  </si>
+  <si>
+    <t>superadmin</t>
+  </si>
+  <si>
+    <t>NULL</t>
   </si>
 </sst>
 </file>
@@ -578,52 +599,53 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
     <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Titre" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Titre 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Titre 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Titre 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Titre 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -639,7 +661,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -935,355 +957,661 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="5" max="5" width="23.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
+      <c r="B2">
         <v>10003</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="1">
+        <v>45079.578366817128</v>
+      </c>
+      <c r="I2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
+      <c r="B3">
+        <v>10003</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="1">
+        <v>45079.578366817128</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>10003</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="1">
+        <v>45079.578366817128</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
         <v>10003</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="1">
+        <v>45079.578366817128</v>
+      </c>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>10003</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="1">
+        <v>45079.578366817128</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
         <v>10003</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="1">
+        <v>45079.578366817128</v>
+      </c>
+      <c r="I7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>10003</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="1">
+        <v>45079.578366817128</v>
+      </c>
+      <c r="I8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
         <v>10003</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>8</v>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="1">
+        <v>45079.578366817128</v>
+      </c>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>10003</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6">
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="1">
+        <v>45079.578366817128</v>
+      </c>
+      <c r="I10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
         <v>10003</v>
       </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>8</v>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="1">
+        <v>45079.578366817128</v>
+      </c>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>10003</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7">
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="1">
+        <v>45079.578366817128</v>
+      </c>
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
         <v>10003</v>
       </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>8</v>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="1">
+        <v>45079.578366817128</v>
+      </c>
+      <c r="I13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>10003</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8">
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="1">
+        <v>45079.578366817128</v>
+      </c>
+      <c r="I14" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
         <v>10003</v>
       </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s">
-        <v>8</v>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="1">
+        <v>45079.578366817128</v>
+      </c>
+      <c r="I15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <v>10003</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9">
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="1">
+        <v>45079.578366817128</v>
+      </c>
+      <c r="I16" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17">
         <v>10003</v>
       </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" t="s">
         <v>7</v>
       </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10">
-        <v>10003</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11">
-        <v>10003</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12">
-        <v>10003</v>
-      </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13">
-        <v>10003</v>
-      </c>
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14">
-        <v>10003</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15">
-        <v>10003</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16">
-        <v>10003</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17">
-        <v>10003</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" t="s">
-        <v>8</v>
+      <c r="F17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="1">
+        <v>45079.578366817128</v>
+      </c>
+      <c r="I17" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" t="s">
+        <v>31</v>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
